--- a/Code/Results/Cases/Case_4_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_204/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9988291135762263</v>
+        <v>1.076113267444826</v>
       </c>
       <c r="D2">
-        <v>1.013812515126446</v>
+        <v>1.06609586305523</v>
       </c>
       <c r="E2">
-        <v>1.013966560479836</v>
+        <v>1.089871793792328</v>
       </c>
       <c r="F2">
-        <v>1.015752602737283</v>
+        <v>1.097128008043839</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043525951406062</v>
+        <v>1.046884506009596</v>
       </c>
       <c r="J2">
-        <v>1.021044902145293</v>
+        <v>1.081014349518926</v>
       </c>
       <c r="K2">
-        <v>1.025082715991447</v>
+        <v>1.068807332416748</v>
       </c>
       <c r="L2">
-        <v>1.025234688534796</v>
+        <v>1.092520799621132</v>
       </c>
       <c r="M2">
-        <v>1.026996755757226</v>
+        <v>1.099758531944935</v>
       </c>
       <c r="N2">
-        <v>1.022494903021826</v>
+        <v>1.082549513889321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013132307449189</v>
+        <v>1.078446746935534</v>
       </c>
       <c r="D3">
-        <v>1.02480772961003</v>
+        <v>1.067845383074219</v>
       </c>
       <c r="E3">
-        <v>1.028153793670842</v>
+        <v>1.092244857109299</v>
       </c>
       <c r="F3">
-        <v>1.030670937580261</v>
+        <v>1.099651626848998</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048612482050573</v>
+        <v>1.047532280513025</v>
       </c>
       <c r="J3">
-        <v>1.033271263741871</v>
+        <v>1.083001123662674</v>
       </c>
       <c r="K3">
-        <v>1.035132733405146</v>
+        <v>1.070370048895124</v>
       </c>
       <c r="L3">
-        <v>1.038438681627164</v>
+        <v>1.094710179142661</v>
       </c>
       <c r="M3">
-        <v>1.040925860344665</v>
+        <v>1.102099493563216</v>
       </c>
       <c r="N3">
-        <v>1.034738627454254</v>
+        <v>1.08453910948024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021864797078035</v>
+        <v>1.079948072950194</v>
       </c>
       <c r="D4">
-        <v>1.031517942184076</v>
+        <v>1.068969645730607</v>
       </c>
       <c r="E4">
-        <v>1.036822710807498</v>
+        <v>1.093772066259355</v>
       </c>
       <c r="F4">
-        <v>1.039790201515493</v>
+        <v>1.101276287499461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051694498521816</v>
+        <v>1.047946267867412</v>
       </c>
       <c r="J4">
-        <v>1.040725266805251</v>
+        <v>1.08427802461042</v>
       </c>
       <c r="K4">
-        <v>1.041250291786011</v>
+        <v>1.071372996554956</v>
       </c>
       <c r="L4">
-        <v>1.046496137598898</v>
+        <v>1.096118205526243</v>
       </c>
       <c r="M4">
-        <v>1.049430988959412</v>
+        <v>1.10360566018826</v>
       </c>
       <c r="N4">
-        <v>1.042203216056971</v>
+        <v>1.085817823773794</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025424170839751</v>
+        <v>1.08057722206147</v>
       </c>
       <c r="D5">
-        <v>1.034252105184514</v>
+        <v>1.069440456496829</v>
       </c>
       <c r="E5">
-        <v>1.040357774028005</v>
+        <v>1.094412161041039</v>
       </c>
       <c r="F5">
-        <v>1.043509815326429</v>
+        <v>1.101957361117595</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052945010362844</v>
+        <v>1.048119087644886</v>
       </c>
       <c r="J5">
-        <v>1.04376091518902</v>
+        <v>1.084812799691846</v>
       </c>
       <c r="K5">
-        <v>1.043739301537634</v>
+        <v>1.071792699402334</v>
       </c>
       <c r="L5">
-        <v>1.049779327297722</v>
+        <v>1.096708115236919</v>
       </c>
       <c r="M5">
-        <v>1.052897848375326</v>
+        <v>1.104236843991751</v>
       </c>
       <c r="N5">
-        <v>1.045243175409639</v>
+        <v>1.086353358297176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0260155958546</v>
+        <v>1.080682742590467</v>
       </c>
       <c r="D6">
-        <v>1.034706351097205</v>
+        <v>1.069519401482045</v>
       </c>
       <c r="E6">
-        <v>1.040945250472878</v>
+        <v>1.094519523167603</v>
       </c>
       <c r="F6">
-        <v>1.044128015696927</v>
+        <v>1.102071604444496</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053152455736093</v>
+        <v>1.048148033743125</v>
       </c>
       <c r="J6">
-        <v>1.044265161956453</v>
+        <v>1.084902472731635</v>
       </c>
       <c r="K6">
-        <v>1.044152605643909</v>
+        <v>1.07186305681656</v>
       </c>
       <c r="L6">
-        <v>1.050324797960287</v>
+        <v>1.096807046273321</v>
       </c>
       <c r="M6">
-        <v>1.053473908217555</v>
+        <v>1.104342706133961</v>
       </c>
       <c r="N6">
-        <v>1.045748138265319</v>
+        <v>1.086443158682966</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021912780878786</v>
+        <v>1.079956487498297</v>
       </c>
       <c r="D7">
-        <v>1.031554805388499</v>
+        <v>1.068975943866002</v>
       </c>
       <c r="E7">
-        <v>1.036870360665158</v>
+        <v>1.093780626811221</v>
       </c>
       <c r="F7">
-        <v>1.039840335322018</v>
+        <v>1.101285395568967</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051711379516844</v>
+        <v>1.047948581867778</v>
       </c>
       <c r="J7">
-        <v>1.040766200782662</v>
+        <v>1.084285178236852</v>
       </c>
       <c r="K7">
-        <v>1.041283864173031</v>
+        <v>1.071378612206804</v>
       </c>
       <c r="L7">
-        <v>1.046540402420677</v>
+        <v>1.096126095822688</v>
       </c>
       <c r="M7">
-        <v>1.049477725055125</v>
+        <v>1.103614101925331</v>
       </c>
       <c r="N7">
-        <v>1.042244208165325</v>
+        <v>1.085824987559197</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003780019899133</v>
+        <v>1.076903686030892</v>
       </c>
       <c r="D8">
-        <v>1.017618773235755</v>
+        <v>1.06668875750798</v>
       </c>
       <c r="E8">
-        <v>1.018875683722329</v>
+        <v>1.090675533954442</v>
       </c>
       <c r="F8">
-        <v>1.020913953215635</v>
+        <v>1.097982624056763</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045291582114717</v>
+        <v>1.047104503979928</v>
       </c>
       <c r="J8">
-        <v>1.025279137164492</v>
+        <v>1.081687611224379</v>
       </c>
       <c r="K8">
-        <v>1.02856526075039</v>
+        <v>1.069337185993989</v>
       </c>
       <c r="L8">
-        <v>1.029805900848498</v>
+        <v>1.093262529290263</v>
       </c>
       <c r="M8">
-        <v>1.031817891957903</v>
+        <v>1.100551479259917</v>
       </c>
       <c r="N8">
-        <v>1.026735151140427</v>
+        <v>1.083223731703621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9670523947648273</v>
+        <v>1.071456257860726</v>
       </c>
       <c r="D9">
-        <v>0.9893867698838016</v>
+        <v>1.062597086039532</v>
       </c>
       <c r="E9">
-        <v>0.9824987423515035</v>
+        <v>1.085138035894708</v>
       </c>
       <c r="F9">
-        <v>0.9826823604496714</v>
+        <v>1.092096920130095</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032090955811114</v>
+        <v>1.045576824026608</v>
       </c>
       <c r="J9">
-        <v>0.9938247795966375</v>
+        <v>1.07704198518203</v>
       </c>
       <c r="K9">
-        <v>1.002654418768713</v>
+        <v>1.065675273824696</v>
       </c>
       <c r="L9">
-        <v>0.9958822941099518</v>
+        <v>1.088148232487491</v>
       </c>
       <c r="M9">
-        <v>0.9960627953082903</v>
+        <v>1.095086743215559</v>
       </c>
       <c r="N9">
-        <v>0.9952361247769603</v>
+        <v>1.078571508339431</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.937851420931883</v>
+        <v>1.067775798023058</v>
       </c>
       <c r="D10">
-        <v>0.9669737111216772</v>
+        <v>1.059825691630359</v>
       </c>
       <c r="E10">
-        <v>0.9536432956067599</v>
+        <v>1.081398935793902</v>
       </c>
       <c r="F10">
-        <v>0.9523708329837757</v>
+        <v>1.088125605500044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021467852419905</v>
+        <v>1.044530219344451</v>
       </c>
       <c r="J10">
-        <v>0.9687678925845857</v>
+        <v>1.073896173408475</v>
       </c>
       <c r="K10">
-        <v>0.9819660156840965</v>
+        <v>1.063188269233177</v>
       </c>
       <c r="L10">
-        <v>0.9689032070089202</v>
+        <v>1.084689803240909</v>
       </c>
       <c r="M10">
-        <v>0.9676568057080484</v>
+        <v>1.091394750237903</v>
       </c>
       <c r="N10">
-        <v>0.9701436541112862</v>
+        <v>1.075421229152328</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.92354486590664</v>
+        <v>1.066169827730754</v>
       </c>
       <c r="D11">
-        <v>0.9560137675634378</v>
+        <v>1.058614768210669</v>
       </c>
       <c r="E11">
-        <v>0.9395278002910884</v>
+        <v>1.079767909863133</v>
       </c>
       <c r="F11">
-        <v>0.9375446727485759</v>
+        <v>1.086393972744472</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016236799664467</v>
+        <v>1.044070112379128</v>
       </c>
       <c r="J11">
-        <v>0.956484486148708</v>
+        <v>1.07252182160457</v>
       </c>
       <c r="K11">
-        <v>0.9718157706941951</v>
+        <v>1.062100011093959</v>
       </c>
       <c r="L11">
-        <v>0.9556879406044646</v>
+        <v>1.083179997535802</v>
       </c>
       <c r="M11">
-        <v>0.9537490247943362</v>
+        <v>1.089783788733937</v>
       </c>
       <c r="N11">
-        <v>0.9578428038293431</v>
+        <v>1.074044925611221</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9179076116251884</v>
+        <v>1.065571388332636</v>
       </c>
       <c r="D12">
-        <v>0.9517000186575502</v>
+        <v>1.058163294393495</v>
       </c>
       <c r="E12">
-        <v>0.9339698307813916</v>
+        <v>1.079160214399706</v>
       </c>
       <c r="F12">
-        <v>0.9317068465474888</v>
+        <v>1.085748895737457</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014172190583165</v>
+        <v>1.043898147625207</v>
       </c>
       <c r="J12">
-        <v>0.951643950198873</v>
+        <v>1.07200943971965</v>
       </c>
       <c r="K12">
-        <v>0.9678150047068463</v>
+        <v>1.061694030924341</v>
       </c>
       <c r="L12">
-        <v>0.9504816963690222</v>
+        <v>1.082617284693836</v>
       </c>
       <c r="M12">
-        <v>0.9482708213903005</v>
+        <v>1.089183495912251</v>
       </c>
       <c r="N12">
-        <v>0.9529953937632424</v>
+        <v>1.073531816085253</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9191330094221948</v>
+        <v>1.065699843074542</v>
       </c>
       <c r="D13">
-        <v>0.9526374688047693</v>
+        <v>1.05826021397755</v>
       </c>
       <c r="E13">
-        <v>0.9351777999971</v>
+        <v>1.079290652300226</v>
       </c>
       <c r="F13">
-        <v>0.9329756471226744</v>
+        <v>1.085887352687382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014621125424769</v>
+        <v>1.043935082980766</v>
       </c>
       <c r="J13">
-        <v>0.9526961695956123</v>
+        <v>1.072119433624894</v>
       </c>
       <c r="K13">
-        <v>0.9686847072051722</v>
+        <v>1.061781195087625</v>
       </c>
       <c r="L13">
-        <v>0.951613345864017</v>
+        <v>1.082738075611337</v>
       </c>
       <c r="M13">
-        <v>0.9494615486745125</v>
+        <v>1.089312348193535</v>
       </c>
       <c r="N13">
-        <v>0.9540491074322162</v>
+        <v>1.073641966194459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9230860300701325</v>
+        <v>1.066120399878714</v>
       </c>
       <c r="D14">
-        <v>0.9556625479561988</v>
+        <v>1.058577483849291</v>
       </c>
       <c r="E14">
-        <v>0.9390753325975908</v>
+        <v>1.079717715865891</v>
       </c>
       <c r="F14">
-        <v>0.9370694249366309</v>
+        <v>1.086340689034494</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016068817776022</v>
+        <v>1.044055919476043</v>
       </c>
       <c r="J14">
-        <v>0.956090502918191</v>
+        <v>1.0724795067596</v>
       </c>
       <c r="K14">
-        <v>0.9714901524010284</v>
+        <v>1.062066488661669</v>
       </c>
       <c r="L14">
-        <v>0.9552641617425601</v>
+        <v>1.083133522695876</v>
       </c>
       <c r="M14">
-        <v>0.9533030925214833</v>
+        <v>1.089734207665674</v>
       </c>
       <c r="N14">
-        <v>0.9574482610974484</v>
+        <v>1.074002550674317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9254760190163573</v>
+        <v>1.06637926377825</v>
       </c>
       <c r="D15">
-        <v>0.9574921887614627</v>
+        <v>1.058772739869448</v>
       </c>
       <c r="E15">
-        <v>0.9414323158413147</v>
+        <v>1.079980595523292</v>
       </c>
       <c r="F15">
-        <v>0.9395450705508707</v>
+        <v>1.086619754573334</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016943671727743</v>
+        <v>1.044130229665047</v>
       </c>
       <c r="J15">
-        <v>0.9581426724680067</v>
+        <v>1.072701108085278</v>
       </c>
       <c r="K15">
-        <v>0.9731861934557562</v>
+        <v>1.062242033854852</v>
       </c>
       <c r="L15">
-        <v>0.9574715898903469</v>
+        <v>1.083376916658104</v>
       </c>
       <c r="M15">
-        <v>0.9556259495650623</v>
+        <v>1.089993874256638</v>
       </c>
       <c r="N15">
-        <v>0.9595033449634121</v>
+        <v>1.074224466699296</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9387603254762867</v>
+        <v>1.067882116467017</v>
       </c>
       <c r="D16">
-        <v>0.9676705442052412</v>
+        <v>1.059905823203915</v>
       </c>
       <c r="E16">
-        <v>0.9545405498785768</v>
+        <v>1.081506924196889</v>
       </c>
       <c r="F16">
-        <v>0.9533132733440134</v>
+        <v>1.08824026938544</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021799698232959</v>
+        <v>1.044560607557853</v>
       </c>
       <c r="J16">
-        <v>0.9695481657922292</v>
+        <v>1.073987123075525</v>
       </c>
       <c r="K16">
-        <v>0.9826106477825691</v>
+        <v>1.06326025002975</v>
       </c>
       <c r="L16">
-        <v>0.9697428787364851</v>
+        <v>1.084789740329112</v>
       </c>
       <c r="M16">
-        <v>0.9685405994195128</v>
+        <v>1.091501400000085</v>
       </c>
       <c r="N16">
-        <v>0.9709250353963835</v>
+        <v>1.075512307978337</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9466056178270954</v>
+        <v>1.068821478318813</v>
       </c>
       <c r="D17">
-        <v>0.9736877109010673</v>
+        <v>1.060613627917339</v>
       </c>
       <c r="E17">
-        <v>0.9622876851952239</v>
+        <v>1.082461102030797</v>
       </c>
       <c r="F17">
-        <v>0.96145071289396</v>
+        <v>1.089253510346945</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024661248190135</v>
+        <v>1.04482870492318</v>
       </c>
       <c r="J17">
-        <v>0.9762824344715245</v>
+        <v>1.0747905034916</v>
       </c>
       <c r="K17">
-        <v>0.9881733737933596</v>
+        <v>1.063895875213434</v>
       </c>
       <c r="L17">
-        <v>0.9769909178391827</v>
+        <v>1.085672637958201</v>
       </c>
       <c r="M17">
-        <v>0.9761701857224453</v>
+        <v>1.092443693950854</v>
       </c>
       <c r="N17">
-        <v>0.9776688675096347</v>
+        <v>1.076316829286752</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9510274502792008</v>
+        <v>1.069368208982027</v>
       </c>
       <c r="D18">
-        <v>0.977080908480754</v>
+        <v>1.061025430775725</v>
       </c>
       <c r="E18">
-        <v>0.9666560846452635</v>
+        <v>1.083016507006811</v>
       </c>
       <c r="F18">
-        <v>0.9660393601632129</v>
+        <v>1.089843360624667</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02627169630914</v>
+        <v>1.04498441531088</v>
       </c>
       <c r="J18">
-        <v>0.9800773743999304</v>
+        <v>1.075257928829165</v>
       </c>
       <c r="K18">
-        <v>0.9913073409492593</v>
+        <v>1.064265530773639</v>
       </c>
       <c r="L18">
-        <v>0.9810763183400513</v>
+        <v>1.086186436082603</v>
       </c>
       <c r="M18">
-        <v>0.9804712302363741</v>
+        <v>1.092992135110949</v>
       </c>
       <c r="N18">
-        <v>0.9814691966880246</v>
+        <v>1.076784918421911</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9525107704693589</v>
+        <v>1.069554431158958</v>
       </c>
       <c r="D19">
-        <v>0.9782194283623398</v>
+        <v>1.061165668604098</v>
       </c>
       <c r="E19">
-        <v>0.9681217848889261</v>
+        <v>1.083205692388965</v>
       </c>
       <c r="F19">
-        <v>0.9675789928687388</v>
+        <v>1.090044290175249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026811506636353</v>
+        <v>1.045037396142331</v>
       </c>
       <c r="J19">
-        <v>0.9813502711021056</v>
+        <v>1.07541711147809</v>
       </c>
       <c r="K19">
-        <v>0.9923583935839717</v>
+        <v>1.064391389565653</v>
       </c>
       <c r="L19">
-        <v>0.982446801338091</v>
+        <v>1.086361429374195</v>
       </c>
       <c r="M19">
-        <v>0.9819141539422459</v>
+        <v>1.093178940562251</v>
       </c>
       <c r="N19">
-        <v>0.98274390104952</v>
+        <v>1.076944327128455</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9457802718212737</v>
+        <v>1.068720816508579</v>
       </c>
       <c r="D20">
-        <v>0.973054495944852</v>
+        <v>1.060537795868491</v>
       </c>
       <c r="E20">
-        <v>0.9614724632999618</v>
+        <v>1.082358847252815</v>
       </c>
       <c r="F20">
-        <v>0.960594403882822</v>
+        <v>1.089144919217461</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024360454081869</v>
+        <v>1.044800009677993</v>
       </c>
       <c r="J20">
-        <v>0.9755740398575711</v>
+        <v>1.07470443008073</v>
       </c>
       <c r="K20">
-        <v>0.9875882958683461</v>
+        <v>1.063827792109157</v>
       </c>
       <c r="L20">
-        <v>0.9762283805061053</v>
+        <v>1.085578033986175</v>
       </c>
       <c r="M20">
-        <v>0.975367446832204</v>
+        <v>1.092342717527059</v>
       </c>
       <c r="N20">
-        <v>0.9769594668940753</v>
+        <v>1.076230633641766</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9219316482547255</v>
+        <v>1.065996609622769</v>
       </c>
       <c r="D21">
-        <v>0.9547790007244299</v>
+        <v>1.058484102616846</v>
       </c>
       <c r="E21">
-        <v>0.9379370389323999</v>
+        <v>1.079592008128962</v>
       </c>
       <c r="F21">
-        <v>0.9358738206045012</v>
+        <v>1.086207244967105</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015646141614755</v>
+        <v>1.044020365585843</v>
       </c>
       <c r="J21">
-        <v>0.955099278410092</v>
+        <v>1.072373526712997</v>
       </c>
       <c r="K21">
-        <v>0.970670915826671</v>
+        <v>1.061982525559497</v>
       </c>
       <c r="L21">
-        <v>0.9541979980041931</v>
+        <v>1.083017126414571</v>
       </c>
       <c r="M21">
-        <v>0.9521812073883383</v>
+        <v>1.089610033790686</v>
       </c>
       <c r="N21">
-        <v>0.956455628936853</v>
+        <v>1.073896420123892</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9050004639819622</v>
+        <v>1.064272707451794</v>
       </c>
       <c r="D22">
-        <v>0.9418349009824176</v>
+        <v>1.057183103325185</v>
       </c>
       <c r="E22">
-        <v>0.921252871579625</v>
+        <v>1.077841594918188</v>
       </c>
       <c r="F22">
-        <v>0.9183490481529978</v>
+        <v>1.084349351658276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009439533681846</v>
+        <v>1.043524025769324</v>
       </c>
       <c r="J22">
-        <v>0.9405610839417868</v>
+        <v>1.070897053158369</v>
       </c>
       <c r="K22">
-        <v>0.9586539281104135</v>
+        <v>1.060812170181494</v>
       </c>
       <c r="L22">
-        <v>0.93856424271315</v>
+        <v>1.081395937652392</v>
       </c>
       <c r="M22">
-        <v>0.9357322773987525</v>
+        <v>1.087880805045963</v>
       </c>
       <c r="N22">
-        <v>0.9418967885648485</v>
+        <v>1.072417849807463</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9141945162244645</v>
+        <v>1.065187652262914</v>
       </c>
       <c r="D23">
-        <v>0.9488603190360319</v>
+        <v>1.057873728721874</v>
       </c>
       <c r="E23">
-        <v>0.9303102073535184</v>
+        <v>1.078770565827964</v>
       </c>
       <c r="F23">
-        <v>0.9278628961367773</v>
+        <v>1.085335307459726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012811427374894</v>
+        <v>1.043787734613191</v>
       </c>
       <c r="J23">
-        <v>0.9484556011105308</v>
+        <v>1.071680815366387</v>
       </c>
       <c r="K23">
-        <v>0.9651796219563604</v>
+        <v>1.06143357620775</v>
       </c>
       <c r="L23">
-        <v>0.9470528793995021</v>
+        <v>1.082256427216342</v>
       </c>
       <c r="M23">
-        <v>0.9446631176881941</v>
+        <v>1.088798573231987</v>
       </c>
       <c r="N23">
-        <v>0.9498025168534857</v>
+        <v>1.073202725047715</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9461536815706183</v>
+        <v>1.068766304900776</v>
       </c>
       <c r="D24">
-        <v>0.9733409748293887</v>
+        <v>1.060572064342205</v>
       </c>
       <c r="E24">
-        <v>0.961841286737244</v>
+        <v>1.08240505533848</v>
       </c>
       <c r="F24">
-        <v>0.9609818154532128</v>
+        <v>1.089193990443599</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024496549368701</v>
+        <v>1.044812977881865</v>
       </c>
       <c r="J24">
-        <v>0.9758945397021166</v>
+        <v>1.074743326571592</v>
       </c>
       <c r="K24">
-        <v>0.9878530058548414</v>
+        <v>1.063858559311188</v>
       </c>
       <c r="L24">
-        <v>0.9765733732660528</v>
+        <v>1.085620785095754</v>
       </c>
       <c r="M24">
-        <v>0.9757306260440869</v>
+        <v>1.092388348078814</v>
       </c>
       <c r="N24">
-        <v>0.9772804218851617</v>
+        <v>1.076269585370106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9772408374427847</v>
+        <v>1.072872924470525</v>
       </c>
       <c r="D25">
-        <v>0.9972161182683092</v>
+        <v>1.063662392273617</v>
       </c>
       <c r="E25">
-        <v>0.9925805189897083</v>
+        <v>1.086577740736948</v>
       </c>
       <c r="F25">
-        <v>0.9932752758516243</v>
+        <v>1.093626645927543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035774376888233</v>
+        <v>1.045976649313953</v>
       </c>
       <c r="J25">
-        <v>1.002559187104039</v>
+        <v>1.078251374186791</v>
       </c>
       <c r="K25">
-        <v>1.009857804685436</v>
+        <v>1.066629857701387</v>
       </c>
       <c r="L25">
-        <v>1.005295115216015</v>
+        <v>1.089478798721514</v>
       </c>
       <c r="M25">
-        <v>1.00597888927327</v>
+        <v>1.096507883856555</v>
       </c>
       <c r="N25">
-        <v>1.003982936144873</v>
+        <v>1.079782614815298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_204/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.076113267444826</v>
+        <v>0.9988291135762296</v>
       </c>
       <c r="D2">
-        <v>1.06609586305523</v>
+        <v>1.013812515126449</v>
       </c>
       <c r="E2">
-        <v>1.089871793792328</v>
+        <v>1.01396656047984</v>
       </c>
       <c r="F2">
-        <v>1.097128008043839</v>
+        <v>1.015752602737286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046884506009596</v>
+        <v>1.043525951406064</v>
       </c>
       <c r="J2">
-        <v>1.081014349518926</v>
+        <v>1.021044902145296</v>
       </c>
       <c r="K2">
-        <v>1.068807332416748</v>
+        <v>1.025082715991449</v>
       </c>
       <c r="L2">
-        <v>1.092520799621132</v>
+        <v>1.025234688534799</v>
       </c>
       <c r="M2">
-        <v>1.099758531944935</v>
+        <v>1.02699675575723</v>
       </c>
       <c r="N2">
-        <v>1.082549513889321</v>
+        <v>1.02249490302183</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.078446746935534</v>
+        <v>1.013132307449188</v>
       </c>
       <c r="D3">
-        <v>1.067845383074219</v>
+        <v>1.024807729610029</v>
       </c>
       <c r="E3">
-        <v>1.092244857109299</v>
+        <v>1.028153793670841</v>
       </c>
       <c r="F3">
-        <v>1.099651626848998</v>
+        <v>1.03067093758026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047532280513025</v>
+        <v>1.048612482050572</v>
       </c>
       <c r="J3">
-        <v>1.083001123662674</v>
+        <v>1.03327126374187</v>
       </c>
       <c r="K3">
-        <v>1.070370048895124</v>
+        <v>1.035132733405145</v>
       </c>
       <c r="L3">
-        <v>1.094710179142661</v>
+        <v>1.038438681627163</v>
       </c>
       <c r="M3">
-        <v>1.102099493563216</v>
+        <v>1.040925860344664</v>
       </c>
       <c r="N3">
-        <v>1.08453910948024</v>
+        <v>1.034738627454254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.079948072950194</v>
+        <v>1.021864797078033</v>
       </c>
       <c r="D4">
-        <v>1.068969645730607</v>
+        <v>1.031517942184074</v>
       </c>
       <c r="E4">
-        <v>1.093772066259355</v>
+        <v>1.036822710807496</v>
       </c>
       <c r="F4">
-        <v>1.101276287499461</v>
+        <v>1.039790201515491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047946267867412</v>
+        <v>1.051694498521815</v>
       </c>
       <c r="J4">
-        <v>1.08427802461042</v>
+        <v>1.040725266805249</v>
       </c>
       <c r="K4">
-        <v>1.071372996554956</v>
+        <v>1.041250291786009</v>
       </c>
       <c r="L4">
-        <v>1.096118205526243</v>
+        <v>1.046496137598896</v>
       </c>
       <c r="M4">
-        <v>1.10360566018826</v>
+        <v>1.04943098895941</v>
       </c>
       <c r="N4">
-        <v>1.085817823773794</v>
+        <v>1.042203216056969</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.08057722206147</v>
+        <v>1.025424170839754</v>
       </c>
       <c r="D5">
-        <v>1.069440456496829</v>
+        <v>1.034252105184516</v>
       </c>
       <c r="E5">
-        <v>1.094412161041039</v>
+        <v>1.040357774028007</v>
       </c>
       <c r="F5">
-        <v>1.101957361117595</v>
+        <v>1.043509815326431</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048119087644886</v>
+        <v>1.052945010362845</v>
       </c>
       <c r="J5">
-        <v>1.084812799691846</v>
+        <v>1.043760915189023</v>
       </c>
       <c r="K5">
-        <v>1.071792699402334</v>
+        <v>1.043739301537636</v>
       </c>
       <c r="L5">
-        <v>1.096708115236919</v>
+        <v>1.049779327297725</v>
       </c>
       <c r="M5">
-        <v>1.104236843991751</v>
+        <v>1.052897848375329</v>
       </c>
       <c r="N5">
-        <v>1.086353358297176</v>
+        <v>1.045243175409641</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.080682742590467</v>
+        <v>1.0260155958546</v>
       </c>
       <c r="D6">
-        <v>1.069519401482045</v>
+        <v>1.034706351097205</v>
       </c>
       <c r="E6">
-        <v>1.094519523167603</v>
+        <v>1.040945250472878</v>
       </c>
       <c r="F6">
-        <v>1.102071604444496</v>
+        <v>1.044128015696927</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048148033743125</v>
+        <v>1.053152455736093</v>
       </c>
       <c r="J6">
-        <v>1.084902472731635</v>
+        <v>1.044265161956453</v>
       </c>
       <c r="K6">
-        <v>1.07186305681656</v>
+        <v>1.044152605643909</v>
       </c>
       <c r="L6">
-        <v>1.096807046273321</v>
+        <v>1.050324797960287</v>
       </c>
       <c r="M6">
-        <v>1.104342706133961</v>
+        <v>1.053473908217555</v>
       </c>
       <c r="N6">
-        <v>1.086443158682966</v>
+        <v>1.045748138265319</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.079956487498297</v>
+        <v>1.021912780878788</v>
       </c>
       <c r="D7">
-        <v>1.068975943866002</v>
+        <v>1.0315548053885</v>
       </c>
       <c r="E7">
-        <v>1.093780626811221</v>
+        <v>1.03687036066516</v>
       </c>
       <c r="F7">
-        <v>1.101285395568967</v>
+        <v>1.03984033532202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047948581867778</v>
+        <v>1.051711379516844</v>
       </c>
       <c r="J7">
-        <v>1.084285178236852</v>
+        <v>1.040766200782664</v>
       </c>
       <c r="K7">
-        <v>1.071378612206804</v>
+        <v>1.041283864173032</v>
       </c>
       <c r="L7">
-        <v>1.096126095822688</v>
+        <v>1.046540402420679</v>
       </c>
       <c r="M7">
-        <v>1.103614101925331</v>
+        <v>1.049477725055127</v>
       </c>
       <c r="N7">
-        <v>1.085824987559197</v>
+        <v>1.042244208165328</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.076903686030892</v>
+        <v>1.003780019899133</v>
       </c>
       <c r="D8">
-        <v>1.06668875750798</v>
+        <v>1.017618773235756</v>
       </c>
       <c r="E8">
-        <v>1.090675533954442</v>
+        <v>1.018875683722329</v>
       </c>
       <c r="F8">
-        <v>1.097982624056763</v>
+        <v>1.020913953215636</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047104503979928</v>
+        <v>1.045291582114717</v>
       </c>
       <c r="J8">
-        <v>1.081687611224379</v>
+        <v>1.025279137164493</v>
       </c>
       <c r="K8">
-        <v>1.069337185993989</v>
+        <v>1.028565260750391</v>
       </c>
       <c r="L8">
-        <v>1.093262529290263</v>
+        <v>1.029805900848499</v>
       </c>
       <c r="M8">
-        <v>1.100551479259917</v>
+        <v>1.031817891957903</v>
       </c>
       <c r="N8">
-        <v>1.083223731703621</v>
+        <v>1.026735151140427</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.071456257860726</v>
+        <v>0.967052394764829</v>
       </c>
       <c r="D9">
-        <v>1.062597086039532</v>
+        <v>0.989386769883803</v>
       </c>
       <c r="E9">
-        <v>1.085138035894708</v>
+        <v>0.9824987423515055</v>
       </c>
       <c r="F9">
-        <v>1.092096920130095</v>
+        <v>0.9826823604496735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045576824026608</v>
+        <v>1.032090955811115</v>
       </c>
       <c r="J9">
-        <v>1.07704198518203</v>
+        <v>0.9938247795966392</v>
       </c>
       <c r="K9">
-        <v>1.065675273824696</v>
+        <v>1.002654418768715</v>
       </c>
       <c r="L9">
-        <v>1.088148232487491</v>
+        <v>0.9958822941099539</v>
       </c>
       <c r="M9">
-        <v>1.095086743215559</v>
+        <v>0.9960627953082923</v>
       </c>
       <c r="N9">
-        <v>1.078571508339431</v>
+        <v>0.9952361247769621</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067775798023058</v>
+        <v>0.9378514209318836</v>
       </c>
       <c r="D10">
-        <v>1.059825691630359</v>
+        <v>0.9669737111216776</v>
       </c>
       <c r="E10">
-        <v>1.081398935793902</v>
+        <v>0.9536432956067605</v>
       </c>
       <c r="F10">
-        <v>1.088125605500044</v>
+        <v>0.9523708329837763</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044530219344451</v>
+        <v>1.021467852419905</v>
       </c>
       <c r="J10">
-        <v>1.073896173408475</v>
+        <v>0.9687678925845863</v>
       </c>
       <c r="K10">
-        <v>1.063188269233177</v>
+        <v>0.9819660156840969</v>
       </c>
       <c r="L10">
-        <v>1.084689803240909</v>
+        <v>0.9689032070089209</v>
       </c>
       <c r="M10">
-        <v>1.091394750237903</v>
+        <v>0.9676568057080489</v>
       </c>
       <c r="N10">
-        <v>1.075421229152328</v>
+        <v>0.9701436541112868</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066169827730754</v>
+        <v>0.92354486590664</v>
       </c>
       <c r="D11">
-        <v>1.058614768210669</v>
+        <v>0.9560137675634374</v>
       </c>
       <c r="E11">
-        <v>1.079767909863133</v>
+        <v>0.9395278002910884</v>
       </c>
       <c r="F11">
-        <v>1.086393972744472</v>
+        <v>0.9375446727485759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044070112379128</v>
+        <v>1.016236799664467</v>
       </c>
       <c r="J11">
-        <v>1.07252182160457</v>
+        <v>0.9564844861487076</v>
       </c>
       <c r="K11">
-        <v>1.062100011093959</v>
+        <v>0.9718157706941948</v>
       </c>
       <c r="L11">
-        <v>1.083179997535802</v>
+        <v>0.9556879406044647</v>
       </c>
       <c r="M11">
-        <v>1.089783788733937</v>
+        <v>0.9537490247943361</v>
       </c>
       <c r="N11">
-        <v>1.074044925611221</v>
+        <v>0.9578428038293429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.065571388332636</v>
+        <v>0.9179076116251921</v>
       </c>
       <c r="D12">
-        <v>1.058163294393495</v>
+        <v>0.9517000186575532</v>
       </c>
       <c r="E12">
-        <v>1.079160214399706</v>
+        <v>0.9339698307813958</v>
       </c>
       <c r="F12">
-        <v>1.085748895737457</v>
+        <v>0.9317068465474928</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043898147625207</v>
+        <v>1.014172190583166</v>
       </c>
       <c r="J12">
-        <v>1.07200943971965</v>
+        <v>0.9516439501988768</v>
       </c>
       <c r="K12">
-        <v>1.061694030924341</v>
+        <v>0.9678150047068494</v>
       </c>
       <c r="L12">
-        <v>1.082617284693836</v>
+        <v>0.9504816963690265</v>
       </c>
       <c r="M12">
-        <v>1.089183495912251</v>
+        <v>0.9482708213903043</v>
       </c>
       <c r="N12">
-        <v>1.073531816085253</v>
+        <v>0.9529953937632459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.065699843074542</v>
+        <v>0.9191330094221983</v>
       </c>
       <c r="D13">
-        <v>1.05826021397755</v>
+        <v>0.9526374688047726</v>
       </c>
       <c r="E13">
-        <v>1.079290652300226</v>
+        <v>0.9351777999971033</v>
       </c>
       <c r="F13">
-        <v>1.085887352687382</v>
+        <v>0.9329756471226781</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043935082980766</v>
+        <v>1.014621125424771</v>
       </c>
       <c r="J13">
-        <v>1.072119433624894</v>
+        <v>0.9526961695956158</v>
       </c>
       <c r="K13">
-        <v>1.061781195087625</v>
+        <v>0.9686847072051753</v>
       </c>
       <c r="L13">
-        <v>1.082738075611337</v>
+        <v>0.9516133458640204</v>
       </c>
       <c r="M13">
-        <v>1.089312348193535</v>
+        <v>0.949461548674516</v>
       </c>
       <c r="N13">
-        <v>1.073641966194459</v>
+        <v>0.9540491074322196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066120399878714</v>
+        <v>0.92308603007013</v>
       </c>
       <c r="D14">
-        <v>1.058577483849291</v>
+        <v>0.9556625479561965</v>
       </c>
       <c r="E14">
-        <v>1.079717715865891</v>
+        <v>0.9390753325975884</v>
       </c>
       <c r="F14">
-        <v>1.086340689034494</v>
+        <v>0.9370694249366283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044055919476043</v>
+        <v>1.016068817776022</v>
       </c>
       <c r="J14">
-        <v>1.0724795067596</v>
+        <v>0.9560905029181888</v>
       </c>
       <c r="K14">
-        <v>1.062066488661669</v>
+        <v>0.9714901524010265</v>
       </c>
       <c r="L14">
-        <v>1.083133522695876</v>
+        <v>0.9552641617425575</v>
       </c>
       <c r="M14">
-        <v>1.089734207665674</v>
+        <v>0.9533030925214804</v>
       </c>
       <c r="N14">
-        <v>1.074002550674317</v>
+        <v>0.957448261097446</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06637926377825</v>
+        <v>0.925476019016355</v>
       </c>
       <c r="D15">
-        <v>1.058772739869448</v>
+        <v>0.9574921887614609</v>
       </c>
       <c r="E15">
-        <v>1.079980595523292</v>
+        <v>0.9414323158413127</v>
       </c>
       <c r="F15">
-        <v>1.086619754573334</v>
+        <v>0.9395450705508686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044130229665047</v>
+        <v>1.016943671727742</v>
       </c>
       <c r="J15">
-        <v>1.072701108085278</v>
+        <v>0.9581426724680047</v>
       </c>
       <c r="K15">
-        <v>1.062242033854852</v>
+        <v>0.9731861934557543</v>
       </c>
       <c r="L15">
-        <v>1.083376916658104</v>
+        <v>0.9574715898903448</v>
       </c>
       <c r="M15">
-        <v>1.089993874256638</v>
+        <v>0.9556259495650602</v>
       </c>
       <c r="N15">
-        <v>1.074224466699296</v>
+        <v>0.9595033449634097</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067882116467017</v>
+        <v>0.9387603254762867</v>
       </c>
       <c r="D16">
-        <v>1.059905823203915</v>
+        <v>0.9676705442052416</v>
       </c>
       <c r="E16">
-        <v>1.081506924196889</v>
+        <v>0.9545405498785769</v>
       </c>
       <c r="F16">
-        <v>1.08824026938544</v>
+        <v>0.9533132733440133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044560607557853</v>
+        <v>1.02179969823296</v>
       </c>
       <c r="J16">
-        <v>1.073987123075525</v>
+        <v>0.9695481657922292</v>
       </c>
       <c r="K16">
-        <v>1.06326025002975</v>
+        <v>0.9826106477825693</v>
       </c>
       <c r="L16">
-        <v>1.084789740329112</v>
+        <v>0.9697428787364851</v>
       </c>
       <c r="M16">
-        <v>1.091501400000085</v>
+        <v>0.9685405994195124</v>
       </c>
       <c r="N16">
-        <v>1.075512307978337</v>
+        <v>0.9709250353963834</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068821478318813</v>
+        <v>0.9466056178270964</v>
       </c>
       <c r="D17">
-        <v>1.060613627917339</v>
+        <v>0.973687710901068</v>
       </c>
       <c r="E17">
-        <v>1.082461102030797</v>
+        <v>0.9622876851952252</v>
       </c>
       <c r="F17">
-        <v>1.089253510346945</v>
+        <v>0.9614507128939614</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04482870492318</v>
+        <v>1.024661248190136</v>
       </c>
       <c r="J17">
-        <v>1.0747905034916</v>
+        <v>0.9762824344715253</v>
       </c>
       <c r="K17">
-        <v>1.063895875213434</v>
+        <v>0.9881733737933602</v>
       </c>
       <c r="L17">
-        <v>1.085672637958201</v>
+        <v>0.9769909178391839</v>
       </c>
       <c r="M17">
-        <v>1.092443693950854</v>
+        <v>0.9761701857224466</v>
       </c>
       <c r="N17">
-        <v>1.076316829286752</v>
+        <v>0.9776688675096354</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069368208982027</v>
+        <v>0.9510274502791994</v>
       </c>
       <c r="D18">
-        <v>1.061025430775725</v>
+        <v>0.9770809084807527</v>
       </c>
       <c r="E18">
-        <v>1.083016507006811</v>
+        <v>0.966656084645262</v>
       </c>
       <c r="F18">
-        <v>1.089843360624667</v>
+        <v>0.9660393601632116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04498441531088</v>
+        <v>1.026271696309139</v>
       </c>
       <c r="J18">
-        <v>1.075257928829165</v>
+        <v>0.980077374399929</v>
       </c>
       <c r="K18">
-        <v>1.064265530773639</v>
+        <v>0.9913073409492581</v>
       </c>
       <c r="L18">
-        <v>1.086186436082603</v>
+        <v>0.9810763183400497</v>
       </c>
       <c r="M18">
-        <v>1.092992135110949</v>
+        <v>0.9804712302363728</v>
       </c>
       <c r="N18">
-        <v>1.076784918421911</v>
+        <v>0.9814691966880231</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069554431158958</v>
+        <v>0.9525107704693596</v>
       </c>
       <c r="D19">
-        <v>1.061165668604098</v>
+        <v>0.97821942836234</v>
       </c>
       <c r="E19">
-        <v>1.083205692388965</v>
+        <v>0.9681217848889265</v>
       </c>
       <c r="F19">
-        <v>1.090044290175249</v>
+        <v>0.9675789928687394</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045037396142331</v>
+        <v>1.026811506636353</v>
       </c>
       <c r="J19">
-        <v>1.07541711147809</v>
+        <v>0.981350271102106</v>
       </c>
       <c r="K19">
-        <v>1.064391389565653</v>
+        <v>0.9923583935839719</v>
       </c>
       <c r="L19">
-        <v>1.086361429374195</v>
+        <v>0.9824468013380916</v>
       </c>
       <c r="M19">
-        <v>1.093178940562251</v>
+        <v>0.9819141539422463</v>
       </c>
       <c r="N19">
-        <v>1.076944327128455</v>
+        <v>0.9827439010495205</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068720816508579</v>
+        <v>0.9457802718212761</v>
       </c>
       <c r="D20">
-        <v>1.060537795868491</v>
+        <v>0.9730544959448538</v>
       </c>
       <c r="E20">
-        <v>1.082358847252815</v>
+        <v>0.9614724632999643</v>
       </c>
       <c r="F20">
-        <v>1.089144919217461</v>
+        <v>0.9605944038828246</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044800009677993</v>
+        <v>1.02436045408187</v>
       </c>
       <c r="J20">
-        <v>1.07470443008073</v>
+        <v>0.9755740398575734</v>
       </c>
       <c r="K20">
-        <v>1.063827792109157</v>
+        <v>0.9875882958683481</v>
       </c>
       <c r="L20">
-        <v>1.085578033986175</v>
+        <v>0.9762283805061076</v>
       </c>
       <c r="M20">
-        <v>1.092342717527059</v>
+        <v>0.9753674468322067</v>
       </c>
       <c r="N20">
-        <v>1.076230633641766</v>
+        <v>0.9769594668940779</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.065996609622769</v>
+        <v>0.9219316482547214</v>
       </c>
       <c r="D21">
-        <v>1.058484102616846</v>
+        <v>0.954779000724426</v>
       </c>
       <c r="E21">
-        <v>1.079592008128962</v>
+        <v>0.9379370389323957</v>
       </c>
       <c r="F21">
-        <v>1.086207244967105</v>
+        <v>0.9358738206044968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044020365585843</v>
+        <v>1.015646141614753</v>
       </c>
       <c r="J21">
-        <v>1.072373526712997</v>
+        <v>0.9550992784100879</v>
       </c>
       <c r="K21">
-        <v>1.061982525559497</v>
+        <v>0.9706709158266674</v>
       </c>
       <c r="L21">
-        <v>1.083017126414571</v>
+        <v>0.9541979980041889</v>
       </c>
       <c r="M21">
-        <v>1.089610033790686</v>
+        <v>0.9521812073883341</v>
       </c>
       <c r="N21">
-        <v>1.073896420123892</v>
+        <v>0.9564556289368489</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064272707451794</v>
+        <v>0.9050004639819624</v>
       </c>
       <c r="D22">
-        <v>1.057183103325185</v>
+        <v>0.9418349009824176</v>
       </c>
       <c r="E22">
-        <v>1.077841594918188</v>
+        <v>0.9212528715796252</v>
       </c>
       <c r="F22">
-        <v>1.084349351658276</v>
+        <v>0.918349048152998</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043524025769324</v>
+        <v>1.009439533681846</v>
       </c>
       <c r="J22">
-        <v>1.070897053158369</v>
+        <v>0.9405610839417868</v>
       </c>
       <c r="K22">
-        <v>1.060812170181494</v>
+        <v>0.9586539281104134</v>
       </c>
       <c r="L22">
-        <v>1.081395937652392</v>
+        <v>0.9385642427131502</v>
       </c>
       <c r="M22">
-        <v>1.087880805045963</v>
+        <v>0.9357322773987528</v>
       </c>
       <c r="N22">
-        <v>1.072417849807463</v>
+        <v>0.9418967885648487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.065187652262914</v>
+        <v>0.9141945162244681</v>
       </c>
       <c r="D23">
-        <v>1.057873728721874</v>
+        <v>0.9488603190360348</v>
       </c>
       <c r="E23">
-        <v>1.078770565827964</v>
+        <v>0.9303102073535222</v>
       </c>
       <c r="F23">
-        <v>1.085335307459726</v>
+        <v>0.9278628961367812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043787734613191</v>
+        <v>1.012811427374896</v>
       </c>
       <c r="J23">
-        <v>1.071680815366387</v>
+        <v>0.9484556011105344</v>
       </c>
       <c r="K23">
-        <v>1.06143357620775</v>
+        <v>0.9651796219563632</v>
       </c>
       <c r="L23">
-        <v>1.082256427216342</v>
+        <v>0.9470528793995056</v>
       </c>
       <c r="M23">
-        <v>1.088798573231987</v>
+        <v>0.944663117688198</v>
       </c>
       <c r="N23">
-        <v>1.073202725047715</v>
+        <v>0.9498025168534893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068766304900776</v>
+        <v>0.9461536815706174</v>
       </c>
       <c r="D24">
-        <v>1.060572064342205</v>
+        <v>0.9733409748293881</v>
       </c>
       <c r="E24">
-        <v>1.08240505533848</v>
+        <v>0.9618412867372428</v>
       </c>
       <c r="F24">
-        <v>1.089193990443599</v>
+        <v>0.9609818154532115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044812977881865</v>
+        <v>1.0244965493687</v>
       </c>
       <c r="J24">
-        <v>1.074743326571592</v>
+        <v>0.9758945397021158</v>
       </c>
       <c r="K24">
-        <v>1.063858559311188</v>
+        <v>0.987853005854841</v>
       </c>
       <c r="L24">
-        <v>1.085620785095754</v>
+        <v>0.9765733732660516</v>
       </c>
       <c r="M24">
-        <v>1.092388348078814</v>
+        <v>0.9757306260440856</v>
       </c>
       <c r="N24">
-        <v>1.076269585370106</v>
+        <v>0.9772804218851612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.072872924470525</v>
+        <v>0.9772408374427892</v>
       </c>
       <c r="D25">
-        <v>1.063662392273617</v>
+        <v>0.9972161182683129</v>
       </c>
       <c r="E25">
-        <v>1.086577740736948</v>
+        <v>0.9925805189897132</v>
       </c>
       <c r="F25">
-        <v>1.093626645927543</v>
+        <v>0.9932752758516298</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045976649313953</v>
+        <v>1.035774376888235</v>
       </c>
       <c r="J25">
-        <v>1.078251374186791</v>
+        <v>1.002559187104043</v>
       </c>
       <c r="K25">
-        <v>1.066629857701387</v>
+        <v>1.009857804685439</v>
       </c>
       <c r="L25">
-        <v>1.089478798721514</v>
+        <v>1.00529511521602</v>
       </c>
       <c r="M25">
-        <v>1.096507883856555</v>
+        <v>1.005978889273276</v>
       </c>
       <c r="N25">
-        <v>1.079782614815298</v>
+        <v>1.003982936144877</v>
       </c>
     </row>
   </sheetData>
